--- a/InputData/web-app/MOU/Mass Output Units.xlsx
+++ b/InputData/web-app/MOU/Mass Output Units.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\web-app\MOU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\web-app\MOU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A32646A-C9B9-4DE5-81D6-6EEBDA417BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0477EA9-0D08-49D4-9F90-70ABBA60388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="960" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="MOU-large" sheetId="2" r:id="rId2"/>
     <sheet name="MOU-small" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,9 +45,6 @@
     <t>none needed</t>
   </si>
   <si>
-    <t>For the U.S.:</t>
-  </si>
-  <si>
     <t>The large primary energy output unit (used in emissions graphs for most pollutants) is: million metric tonnes (MMT)</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>MOU-small</t>
+  </si>
+  <si>
+    <t>For the EU.:</t>
   </si>
 </sst>
 </file>
@@ -135,9 +135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,9 +175,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,26 +210,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,26 +245,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,20 +423,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,17 +457,17 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +483,7 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -528,12 +494,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>1000000000000</v>
@@ -568,12 +534,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>1000000000</v>
